--- a/Profile_DetectedIssue.xlsx
+++ b/Profile_DetectedIssue.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>FIELDS FROM FHIR Resource</t>
   </si>
@@ -127,6 +127,78 @@
   </si>
   <si>
     <t xml:space="preserve">        DetectedIssue.mitigation.date</t>
+  </si>
+  <si>
+    <t>Reference(Patient)</t>
+  </si>
+  <si>
+    <t>Reference(Practitioner | Device)</t>
+  </si>
+  <si>
+    <t>Reference(Practitioner) - Who is committing?</t>
+  </si>
+  <si>
+    <t>IAM-7</t>
+  </si>
+  <si>
+    <t>AL1-2 / IAM-9</t>
+  </si>
+  <si>
+    <t>AL1-4/ IAR-2</t>
+  </si>
+  <si>
+    <t>PID-3</t>
+  </si>
+  <si>
+    <t>ALI-6 / IAM-11</t>
+  </si>
+  <si>
+    <t>IAM-14 / IAM-16</t>
+  </si>
+  <si>
+    <t>AL1-5 / IAM-8</t>
+  </si>
+  <si>
+    <t>IAM.7</t>
+  </si>
+  <si>
+    <t>AL1.2 || IAM.9</t>
+  </si>
+  <si>
+    <t>AL1.4|| IAR.2</t>
+  </si>
+  <si>
+    <t>PID.3</t>
+  </si>
+  <si>
+    <t>ALI.6 || IAM.11</t>
+  </si>
+  <si>
+    <t>IAM.14 || IAM.16</t>
+  </si>
+  <si>
+    <t>AL1.5 || IAM.8</t>
+  </si>
+  <si>
+    <t>PID.PatientIdentifierList</t>
+  </si>
+  <si>
+    <t>IAM.AllergyUniqueIdentifier</t>
+  </si>
+  <si>
+    <t>AL1.AllergenTypeCode || IAM.SensitivitytoCausativeAgentC</t>
+  </si>
+  <si>
+    <t>AL1.IdentificationDate || IAM.OnsetDate</t>
+  </si>
+  <si>
+    <t>IAM.ReportedBy || IAM.AlertDeviceCode</t>
+  </si>
+  <si>
+    <t>AL1.AllergyReactionCode || IAM.ActionReason</t>
+  </si>
+  <si>
+    <t>AL1.AllergySeverityCode || IAR.AllergySeverityCode</t>
   </si>
 </sst>
 </file>
@@ -558,7 +630,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,9 +682,15 @@
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
@@ -630,9 +708,15 @@
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
@@ -640,9 +724,15 @@
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
@@ -650,19 +740,33 @@
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
@@ -670,11 +774,19 @@
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -690,9 +802,15 @@
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
@@ -744,7 +862,9 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
